--- a/myapp/document/01_DB/00_TABLE_DEFINITION/system_setting(システム設定).xlsx
+++ b/myapp/document/01_DB/00_TABLE_DEFINITION/system_setting(システム設定).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\ison\webAppTemplate\repos\php\document\10_設計\30_DB設計\00_テーブル定義\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\ison\webAppTemplate\repos\myapp\document\01_DB\00_TABLE_DEFINITION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E24228-0F55-4455-9B0A-69170F9EAF11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442D6B8E-DE0F-445E-9F54-CB564F5E895E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="ユーザー" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">ユーザー!$A$1:$I$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">ユーザー!$A$1:$I$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改訂履歴!$A$1:$AZ$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -29,7 +29,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
   <si>
     <t>テーブル定義</t>
     <phoneticPr fontId="4"/>
@@ -271,21 +273,6 @@
     <t>datetime</t>
   </si>
   <si>
-    <t>delete_flag</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>serial</t>
-  </si>
-  <si>
     <t>システムコード</t>
   </si>
   <si>
@@ -318,24 +305,22 @@
     <t>varchar(256)</t>
   </si>
   <si>
-    <t>削除フラグ</t>
-  </si>
-  <si>
-    <t>0:有効、1:無効</t>
-    <rPh sb="2" eb="4">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ムコウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>システム設定マスタ</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>system_setting</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>オプション</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -477,7 +462,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -724,6 +709,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -736,7 +758,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -825,10 +847,6 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
@@ -846,6 +864,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -937,12 +958,26 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -952,6 +987,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1684,6 +1722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AZ50"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -4436,6 +4475,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AZ104"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -10547,15 +10587,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C32" sqref="C32"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -10571,81 +10611,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="75" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="34" t="str">
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="33" t="str">
         <f>表紙!AL41</f>
         <v>MyApp</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="34" t="str">
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="33" t="str">
         <f>表紙!AL43</f>
         <v>MyApp</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
     </row>
     <row r="6" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
@@ -10673,7 +10713,7 @@
       <c r="D9" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="75" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="63" t="s">
@@ -10694,7 +10734,7 @@
       <c r="B10" s="66"/>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
-      <c r="E10" s="68"/>
+      <c r="E10" s="76"/>
       <c r="F10" s="64"/>
       <c r="G10" s="64"/>
       <c r="H10" s="64"/>
@@ -10702,17 +10742,17 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
-        <f>ROW()-10</f>
+        <f t="shared" ref="A11:A17" si="0">ROW()-10</f>
         <v>1</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>48</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>50</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>30</v>
@@ -10726,26 +10766,24 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
-        <f t="shared" ref="A12:A19" si="0">ROW()-10</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="23" t="s">
-        <v>30</v>
-      </c>
+      <c r="H12" s="23"/>
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -10754,10 +10792,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>53</v>
@@ -10775,21 +10813,23 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>58</v>
+      <c r="B14" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="24"/>
+      <c r="F14" s="28" t="s">
+        <v>33</v>
+      </c>
       <c r="G14" s="25"/>
-      <c r="H14" s="23"/>
+      <c r="H14" s="25"/>
       <c r="I14" s="26"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -10798,19 +10838,19 @@
         <v>5</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="28" t="s">
-        <v>33</v>
+      <c r="F15" s="28">
+        <v>0</v>
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
@@ -10822,19 +10862,19 @@
         <v>6</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="28">
-        <v>0</v>
+      <c r="F16" s="28" t="s">
+        <v>33</v>
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
@@ -10846,146 +10886,131 @@
         <v>7</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="28" t="s">
-        <v>33</v>
+      <c r="F17" s="28">
+        <v>0</v>
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="26"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="28">
-        <v>0</v>
-      </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
-    </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="30">
-        <v>0</v>
-      </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="26" t="s">
-        <v>60</v>
+      <c r="A19" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="35" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="54"/>
+      <c r="A21" s="20">
+        <v>1</v>
+      </c>
+      <c r="B21" s="26" t="str">
+        <f>IF(C21="","","FK_"&amp;UPPER($C$5)&amp;"_"&amp;C21)</f>
+        <v/>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="26"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
+      <c r="A22" s="20">
+        <f>A21+1</f>
+        <v>2</v>
+      </c>
+      <c r="B22" s="26" t="str">
+        <f t="shared" ref="B22:B25" si="1">IF(C22="","","FK_"&amp;UPPER($C$5)&amp;"_"&amp;C22)</f>
+        <v/>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="26"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
-        <f>ROW()-22</f>
-        <v>1</v>
+        <f t="shared" ref="A23:A25" si="2">A22+1</f>
+        <v>3</v>
       </c>
       <c r="B23" s="26" t="str">
-        <f>IF(C23="","","FK_"&amp;UPPER($C$5)&amp;"_"&amp;UPPER(C23))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="26"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
-        <f>A23+1</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="B24" s="26" t="str">
-        <f t="shared" ref="B24:B27" si="1">IF(C24="","","FK_"&amp;UPPER($C$5)&amp;"_"&amp;UPPER(C24))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="26"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
-        <f t="shared" ref="A25:A27" si="2">A24+1</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="B25" s="26" t="str">
         <f t="shared" si="1"/>
@@ -10993,84 +11018,83 @@
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="20">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="B26" s="26" t="str">
-        <f t="shared" si="1"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="26"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="54"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="56"/>
+      <c r="D28" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="56"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="30">
+        <v>1</v>
+      </c>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="62"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="20">
+        <f>A29+1</f>
+        <v>2</v>
+      </c>
+      <c r="B30" s="58" t="str">
+        <f t="shared" ref="B30:B33" si="3">IF(D30="","","IDX_"&amp;UPPER($C$5)&amp;"_"&amp;TEXT(A30,"00"))</f>
         <v/>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="20">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="B27" s="26" t="str">
-        <f t="shared" si="1"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="62"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="20">
+        <f>A30+1</f>
+        <v>3</v>
+      </c>
+      <c r="B31" s="58" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="54"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="56"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="31">
-        <f>ROW()-30</f>
-        <v>1</v>
-      </c>
-      <c r="B31" s="58"/>
       <c r="C31" s="59"/>
       <c r="D31" s="32"/>
       <c r="E31" s="60"/>
@@ -11082,14 +11106,14 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <f>A31+1</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B32" s="58" t="str">
-        <f t="shared" ref="B32:B35" si="3">IF(D32="","","IDX_"&amp;UPPER($C$5)&amp;"_"&amp;TEXT(A32,"00"))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C32" s="59"/>
-      <c r="D32" s="33"/>
+      <c r="D32" s="32"/>
       <c r="E32" s="60"/>
       <c r="F32" s="61"/>
       <c r="G32" s="61"/>
@@ -11099,70 +11123,40 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <f>A32+1</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B33" s="58" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C33" s="59"/>
-      <c r="D33" s="33"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="60"/>
       <c r="F33" s="61"/>
       <c r="G33" s="61"/>
       <c r="H33" s="61"/>
       <c r="I33" s="62"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="20">
-        <f>A33+1</f>
-        <v>4</v>
-      </c>
-      <c r="B34" s="58" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="62"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="20">
-        <f>A34+1</f>
-        <v>5</v>
-      </c>
-      <c r="B35" s="58" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="62"/>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" autoFilter="0"/>
   <mergeCells count="39">
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E32:I32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="E33:I33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E31:I31"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="F2:H2"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="E9:E10"/>
@@ -11175,23 +11169,19 @@
     <mergeCell ref="C6:I6"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A19:I19"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:I29"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <conditionalFormatting sqref="B23:B27">
+  <conditionalFormatting sqref="B21:B25">
     <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -11199,7 +11189,7 @@
   <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="20" max="8" man="1"/>
+    <brk id="18" max="8" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
